--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -741,11 +741,7 @@
           <t>dct:title</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ENVS variables</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
@@ -775,11 +771,7 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Quantitative and qualitative and quantitative variables describing ...</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
@@ -809,11 +801,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -843,11 +831,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-0329-0192</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -873,11 +857,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2971-3402</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -903,11 +883,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9823-589X</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -933,11 +909,7 @@
           <t>dct:rights</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
@@ -967,11 +939,7 @@
           <t>pav:version</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.1.2</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>Vocabulary version</t>
@@ -1001,11 +969,7 @@
           <t>pav:createdOn</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2021-09-27T12:00+02:00</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>Date when vocabulary was initially created</t>
@@ -1035,11 +999,7 @@
           <t>pav:lastUpdatedOn</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2021-09-27T13:00+02:00</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>Date of the last vocabulary update</t>
@@ -1162,21 +1122,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Atmospheric Terms</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing atmospheric variables.</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1196,21 +1148,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:WaterTerms</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Water Terms</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing water variables.</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1230,21 +1174,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:GenericTerms</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Generic Terms</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>This is an overarching concept containing variables that are not field specific.</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1264,43 +1200,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:wind_speed</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>wind_speed</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>unit:M-PER-SEC</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Speed is the magnitude of velocity. Wind is defined as a two-dimensional (horizontal) air velocity vector, with no vertical component. (Vertical motion in the atmosphere has the standard name upward_air_velocity.) The wind speed is the magnitude of the wind velocity.</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1314,27 +1226,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:wind_direction</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>wind_direction</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>unit:Degree</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1352,33 +1252,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:Latitude</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vars:GenericTerms</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/latitude, https://mmisw.org/ont/cf/parameter/grid_latitude</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1394,33 +1278,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:Longitude</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>vars:GenericTerms</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/grid_longitude,https://mmisw.org/ont/cf/parameter/longitude</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1436,23 +1304,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:relative_humidity</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>relative_humidity</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1470,37 +1330,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:atmospheric_pressure</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>atmospheric_pressure</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>unit:MilliBAR,unit:HectoPA</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Air pressure is the force per unit area which would be exerted when the moving gas molecules of which the air is composed strike a theoretical surface of any orientation.</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>vars:AtmosphericTerms</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/air_pressure</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1516,23 +1356,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:water_temperature</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>water_temperature</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>vars:WaterTerms</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1550,32 +1382,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vars:Propiconazole</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Propiconazole</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>60207-90-1;1-[[2-(2,4-dichlorophenyl)-4-propyl-1,3-dioxolan-2-yl]methyl]-1,2,4-triazole</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>vars:GenericTerms</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://pubchem.ncbi.nlm.nih.gov/compound/43234,</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,11 @@
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
       <c r="N1" t="inlineStr"/>
       <c r="O1" t="inlineStr"/>
       <c r="P1" t="inlineStr"/>
@@ -1122,13 +1126,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>vars:sample_ID</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sample_ID</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Number given to the sample after institutes nameing standard</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2939,6 +2951,32 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -745,7 +745,11 @@
           <t>dct:title</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agro Ontology</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,11 @@
           <t>dct:description</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Potato Blight disease observation</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
@@ -809,10 +813,14 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6665-0896</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Poul Lassen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -839,8 +847,16 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-7682-5613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jens Grønbech Hansen</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -865,8 +881,16 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-6323-4942</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Margit Styrbæk Jørgensen</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -891,8 +915,16 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Eva Overby Bach</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -914,13 +946,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-0721-551X</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Ying Wang</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -944,15 +980,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -974,13 +1006,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1004,13 +1040,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1034,11 +1074,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2022-01-21T10:03:28Z</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1060,64 +1108,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2022-01-21T10:03:28Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1130,21 +1142,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:sample_ID</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>sample_ID</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Number given to the sample after institutes nameing standard</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1164,20 +1168,64 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1190,13 +1238,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>vars:SampleID</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Number given to the sample after institutes nameing standard</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1216,13 +1272,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>vars:ObservationID</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ObservationID</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Running number</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1242,13 +1306,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>vars:CropSeasonYear</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CropSeasonYear</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1268,14 +1340,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>vars:CountryCode</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1294,14 +1379,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>vars:GrowthStageName</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GrowthStageName</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1320,10 +1413,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>vars:SeverityCategoryName</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SeverityCategoryName</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -2981,6 +3078,58 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1443,13 +1443,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>vars:Disease</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Disease</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Crop Disease name</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1469,15 +1477,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>vars:PotatoLateBlight</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PotatoLateBlight</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1495,15 +1515,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>vars:PotatoEarlyBlight</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PotatoEarlyBlight</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
